--- a/classfiers/bloated/welm/smote/bloated_welm_rbf_smote_results.xlsx
+++ b/classfiers/bloated/welm/smote/bloated_welm_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5295454545454545</v>
+        <v>0.5074626865671642</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4931818181818182</v>
+        <v>0.5211970074812967</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5068181818181818</v>
+        <v>0.5087281795511222</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4851936218678816</v>
+        <v>0.5062344139650873</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4851936218678816</v>
+        <v>0.456359102244389</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4999865396562435</v>
+        <v>0.4999962779618118</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
